--- a/data/UCL/program_url_pair_sample.xlsx
+++ b/data/UCL/program_url_pair_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\英硕项目\0_Code\AI4App\data\UCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_EA683147006810CEEB3B98154B48AE3A7F4DFE0A" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{964F2A95-D37A-4A1C-97B5-1BF5CC4E114C}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_EA683147006810CEEB3B98154B48AE3A7F4DFE0A" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{25C2DDC1-7902-4119-8CBD-866CA7C3D70F}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="0" windowWidth="22920" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="0" windowWidth="22920" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>law llm</t>
-  </si>
-  <si>
-    <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/law-llm</t>
-  </si>
-  <si>
     <t>biochemical engineering msc</t>
   </si>
   <si>
@@ -62,6 +56,12 @@
   </si>
   <si>
     <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-fluids-msc</t>
+  </si>
+  <si>
+    <t>clinical ophthalmic practice msc</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-ophthalmic-practice-msc</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -426,50 +426,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/data/UCL/program_url_pair_sample.xlsx
+++ b/data/UCL/program_url_pair_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\英硕项目\0_Code\AI4App\data\UCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_EA683147006810CEEB3B98154B48AE3A7F4DFE0A" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{25C2DDC1-7902-4119-8CBD-866CA7C3D70F}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_EA683147006810CEEB3B98154B48AE3A7F4DFE0A" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{77F8DA0B-C464-498D-B1D0-148FFCD1BD04}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="0" windowWidth="22920" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="22920" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -58,10 +58,10 @@
     <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-fluids-msc</t>
   </si>
   <si>
-    <t>clinical ophthalmic practice msc</t>
-  </si>
-  <si>
-    <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-ophthalmic-practice-msc</t>
+    <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-audiology-msc</t>
+  </si>
+  <si>
+    <t>audiology</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -426,10 +426,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
